--- a/old_image/procedure.xlsx
+++ b/old_image/procedure.xlsx
@@ -827,14 +827,14 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device|CareTeam|HealthcareService)
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
+    <t>Who performed the procedure</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the procedure.</t>
   </si>
   <si>
     <t>A reference to Device supports use cases, such as pacemakers.</t>
